--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\solon.prd\files\P\Global\Users\B00827\UserData\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER NITRO 5\IdeaProjects\POC2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4A78E9-51E2-4FED-BF62-9A8738871A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731EC17-7574-4A2E-8D2E-BAA701D5D4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>REF_ID</t>
   </si>
@@ -88,51 +85,9 @@
     <t>Robert</t>
   </si>
   <si>
-    <t xml:space="preserve"> Meruem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elric</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shivam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sanjay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prakash</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alphonse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edward</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anshuman</t>
-  </si>
-  <si>
     <t>Abhiroop</t>
   </si>
   <si>
-    <t xml:space="preserve"> Raksha</t>
-  </si>
-  <si>
     <t>Prateek</t>
   </si>
   <si>
@@ -196,9 +151,6 @@
     <t>Raksha</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stephen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Credit</t>
   </si>
   <si>
@@ -293,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Transfer</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Edward</t>
   </si>
 </sst>
 </file>
@@ -622,7 +580,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,37 +658,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -740,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>201701</v>
@@ -751,37 +709,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -791,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P3">
         <v>201701</v>
@@ -802,47 +760,47 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
       </c>
       <c r="P4">
         <v>201702</v>
@@ -853,47 +811,47 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
       </c>
       <c r="P5">
         <v>201704</v>
@@ -904,37 +862,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -944,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P6">
         <v>201701</v>
@@ -955,37 +913,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -995,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="P7">
         <v>201611</v>
@@ -1006,37 +964,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -1046,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="P8">
         <v>201612</v>
@@ -1057,37 +1015,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1097,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <v>201702</v>
@@ -1108,37 +1066,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -1148,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P10">
         <v>201706</v>
@@ -1159,37 +1117,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1199,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P11">
         <v>201706</v>
@@ -1210,37 +1168,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1250,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P12">
         <v>201706</v>
@@ -1261,37 +1219,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1301,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P13">
         <v>201706</v>
@@ -1312,37 +1270,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1352,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P14">
         <v>201901</v>
@@ -1363,37 +1321,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1403,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P15">
         <v>201801</v>
@@ -1414,37 +1372,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1454,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P16">
         <v>201601</v>
@@ -1465,37 +1423,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1505,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P17">
         <v>201803</v>
@@ -1516,37 +1474,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -1556,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P18">
         <v>201702</v>
@@ -1567,37 +1525,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1607,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="P19">
         <v>201802</v>
@@ -1618,37 +1576,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1658,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P20">
         <v>201901</v>
@@ -1669,37 +1627,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M21">
         <v>4</v>
@@ -1709,7 +1667,7 @@
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P21">
         <v>201702</v>
@@ -1720,37 +1678,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -1760,7 +1718,7 @@
         <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P22">
         <v>201709</v>
@@ -1771,37 +1729,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -1811,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P23">
         <v>201703</v>
@@ -1822,37 +1780,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -1862,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P24">
         <v>201702</v>
@@ -1873,37 +1831,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I25">
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -1913,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P25">
         <v>201803</v>
@@ -1924,37 +1882,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1964,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P26">
         <v>201901</v>
